--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/ModifyLoginPwdByRealName.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyLoginPassword/ModifyLoginPwdByRealName.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
